--- a/Sylvester/Button Status Matrix.xlsx
+++ b/Sylvester/Button Status Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Programming\VisualStudioProjects\PDFMerge1\Sylvester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{300B957E-80C2-4F6E-8C18-9E0067327206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22453EE4-C917-450D-AF54-858567EEDE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4776" yWindow="204" windowWidth="38184" windowHeight="22884" xr2:uid="{4A4EFAE3-7520-4F07-A89F-CB9937AF1B1E}"/>
+    <workbookView xWindow="-35190" yWindow="13800" windowWidth="32655" windowHeight="18510" xr2:uid="{4A4EFAE3-7520-4F07-A89F-CB9937AF1B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
   <si>
     <t>Add a project</t>
   </si>
@@ -91,15 +91,6 @@
 disabled</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>style type</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
   </si>
   <si>
     <t>Default state</t>
-  </si>
-  <si>
-    <t>A1</t>
   </si>
   <si>
     <t>enabled when CanSave</t>
@@ -158,9 +146,6 @@
     <t>disable if selectedfolderpair==null</t>
   </si>
   <si>
-    <t>A1A</t>
-  </si>
-  <si>
     <t>in style - add on
 +1</t>
   </si>
@@ -187,6 +172,33 @@
   </si>
   <si>
     <t>disabled if selectedfolderpair==null</t>
+  </si>
+  <si>
+    <t>Left.A</t>
+  </si>
+  <si>
+    <t>Left.A1</t>
+  </si>
+  <si>
+    <t>Left.B</t>
+  </si>
+  <si>
+    <t>Left.A1A</t>
+  </si>
+  <si>
+    <t>Right.A</t>
+  </si>
+  <si>
+    <t>Add to Favorites</t>
+  </si>
+  <si>
+    <t>these only apply when: SavedFolderType==favorites</t>
+  </si>
+  <si>
+    <t>collapse if==favorites</t>
+  </si>
+  <si>
+    <t>Left.C1</t>
   </si>
 </sst>
 </file>
@@ -208,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -258,13 +276,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -275,14 +290,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,6 +317,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -598,536 +630,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D46E03A-F5CC-46BD-93FD-5CEF9951263F}">
-  <dimension ref="A2:M37"/>
+  <dimension ref="A2:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="13.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="3" style="3" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="3" customWidth="1"/>
-    <col min="8" max="10" width="13.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="13" width="14.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
+    <col min="12" max="14" width="13.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="16" max="17" width="14.140625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="L4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="P4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="5" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:13" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="Q28" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="5" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="E29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="5" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="L30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="5" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="M31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" s="5" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="E33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="H33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:13" s="7" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="7" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="7" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="7" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="P33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:12" s="7" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="34" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
